--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_17_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408073.1573279949</v>
+        <v>454207.5229489248</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12542588.90892573</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043049</v>
+        <v>7718829.196416959</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9171228.953297561</v>
+        <v>9120632.601986563</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>129.3420634549344</v>
       </c>
       <c r="Y2" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887085</v>
       </c>
     </row>
     <row r="3">
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>31.77141835213727</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>97.57064510279709</v>
       </c>
       <c r="T3" t="n">
-        <v>165.1725371760945</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -861,28 +861,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>8.838436914954045</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>135.7731919480611</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>131.5765556806279</v>
       </c>
       <c r="X4" t="n">
-        <v>161.8294550022487</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="G5" t="n">
-        <v>187.52558716632</v>
+        <v>153.272793481644</v>
       </c>
       <c r="H5" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>160.4115946525719</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.396723986041543</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.29588533250678</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.483654767777</v>
       </c>
       <c r="T6" t="n">
-        <v>37.50339900575318</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V6" t="n">
-        <v>187.52558716632</v>
+        <v>133.9048480339321</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845772</v>
+        <v>6.039384816041533</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>134.2701942625523</v>
       </c>
       <c r="S7" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="T7" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>187.52558716632</v>
+        <v>6.592382357293848</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.00708539155848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.33592091243833</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>6.396723986041543</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663199</v>
+        <v>28.51986023714624</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1341,22 +1341,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="T10" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>161.8294550022487</v>
-      </c>
-      <c r="U10" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="V10" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="W10" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>113.9096336732666</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>273.5060036621257</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1533,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>139.6821624261907</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>114.4713889389689</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>349.9077264684819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>100.5205878903133</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>125.3146872343259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>69.81472657146871</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>178.6740673930749</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>119.3517065765361</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>113.5103646250813</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>15.07437110675849</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>219.2998250672954</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>147.0290144562267</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2256,7 +2256,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,16 +2298,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>10.96344850598602</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>139.2275206350199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>197.5523887421105</v>
+        <v>135.0614749646566</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,16 +2535,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>29.44424540141591</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>151.782281669823</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>158.5596236696478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>45.86786904372383</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2608,22 +2608,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>101.1856284323088</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>96.31572829406701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2794,22 +2794,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>87.40006684547599</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>177.2776744015458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -2845,19 +2845,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>7.60108101544749</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>162.6159201417012</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>298.8724794603407</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>163.312496019696</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>97.28002421814141</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0.3869495220825774</v>
       </c>
       <c r="X35" t="n">
-        <v>250.7137269004544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>131.3926935616838</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>172.7920613839014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>229.7965692041367</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>242.8528437613039</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>90.57445924393058</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>28.20584125154435</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,7 +3720,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>232.6455623928327</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,13 +3799,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>234.9127514258445</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>113.5103646250813</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>21.23410122893578</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>289.8943346191895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>315.4848458704602</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,10 +4149,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>82.17750998586816</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>264.7376898157374</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>204.4218319897903</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>53.10181779182994</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>141.3070323458394</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>271.1217663066254</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>407.6508467588559</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>523.2361246735302</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487947</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487947</v>
+        <v>456.735935410456</v>
       </c>
       <c r="Y2" t="n">
-        <v>393.841617006275</v>
+        <v>308.4065201693362</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>51.36582106616814</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>112.5663946836085</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>248.1447726172888</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>393.5224324951103</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>511.794105775609</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>555.2921425849985</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652795</v>
+        <v>456.735935410456</v>
       </c>
       <c r="T3" t="n">
-        <v>583.2614020227597</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>308.4065201693362</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897903</v>
+        <v>160.0771049282164</v>
       </c>
       <c r="W3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>95.91234996041999</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>151.2515047213699</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>296.6291645991913</v>
       </c>
       <c r="N4" t="n">
-        <v>650.9033495638718</v>
+        <v>442.0068244770127</v>
       </c>
       <c r="O4" t="n">
-        <v>652.2303032981982</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>587.3844843548342</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>578.4567702993251</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>441.3121319679502</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>292.9827167268305</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>292.9827167268305</v>
       </c>
       <c r="U4" t="n">
-        <v>557.3057129681424</v>
+        <v>292.9827167268305</v>
       </c>
       <c r="V4" t="n">
-        <v>367.8859279516577</v>
+        <v>144.6533014857107</v>
       </c>
       <c r="W4" t="n">
-        <v>178.4661429351729</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330559</v>
+        <v>11.74768968709668</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="C5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="D5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="E5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="F5" t="n">
-        <v>393.8416170062753</v>
+        <v>168.1635976526784</v>
       </c>
       <c r="G5" t="n">
-        <v>204.4218319897905</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I5" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678478</v>
+        <v>13.34259413586626</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058944</v>
+        <v>64.0811123818437</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079185</v>
+        <v>163.9284927306054</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644755</v>
+        <v>306.6973793432479</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>456.3902241803914</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985585</v>
+        <v>584.4056715233287</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020269</v>
+        <v>659.1628932295215</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R5" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="S5" t="n">
-        <v>589.7227393823981</v>
+        <v>505.0977930028367</v>
       </c>
       <c r="T5" t="n">
-        <v>589.7227393823981</v>
+        <v>505.0977930028367</v>
       </c>
       <c r="U5" t="n">
-        <v>589.7227393823981</v>
+        <v>505.0977930028367</v>
       </c>
       <c r="V5" t="n">
-        <v>589.7227393823981</v>
+        <v>505.0977930028367</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
       <c r="Y5" t="n">
-        <v>583.2614020227602</v>
+        <v>336.6306953277575</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>522.8003424308627</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C6" t="n">
-        <v>348.3473131497357</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D6" t="n">
-        <v>348.3473131497357</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E6" t="n">
-        <v>348.3473131497357</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F6" t="n">
-        <v>201.8127551766207</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G6" t="n">
-        <v>64.27357399906981</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H6" t="n">
-        <v>64.27357399906981</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J6" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024208</v>
+        <v>59.33472114872539</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>167.4993528536689</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140245</v>
+        <v>313.079244429523</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546604</v>
+        <v>450.6888460033936</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476352</v>
+        <v>578.3521085265269</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017066</v>
+        <v>661.4800654500998</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="R6" t="n">
-        <v>750.10234866528</v>
+        <v>637.5379034271449</v>
       </c>
       <c r="S6" t="n">
-        <v>750.10234866528</v>
+        <v>485.5342117425217</v>
       </c>
       <c r="T6" t="n">
-        <v>712.2201274473475</v>
+        <v>485.5342117425217</v>
       </c>
       <c r="U6" t="n">
-        <v>712.2201274473475</v>
+        <v>317.0671140674425</v>
       </c>
       <c r="V6" t="n">
-        <v>522.8003424308627</v>
+        <v>181.8096918109454</v>
       </c>
       <c r="W6" t="n">
-        <v>522.8003424308627</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="X6" t="n">
-        <v>522.8003424308627</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y6" t="n">
-        <v>522.8003424308627</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="C7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="D7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="E7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="F7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="I7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="J7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="K7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="L7" t="n">
-        <v>100.3335179349385</v>
+        <v>178.4571965672114</v>
       </c>
       <c r="M7" t="n">
-        <v>285.9838492295953</v>
+        <v>343.5717989985565</v>
       </c>
       <c r="N7" t="n">
-        <v>471.6341805242521</v>
+        <v>397.0228226164918</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608023</v>
+        <v>555.2552294678666</v>
       </c>
       <c r="P7" t="n">
-        <v>750.10234866528</v>
+        <v>667.1297067933134</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846277</v>
+        <v>661.0293180902412</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768597</v>
+        <v>525.4028592391783</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1417032603748</v>
+        <v>356.9357615640992</v>
       </c>
       <c r="T7" t="n">
-        <v>233.7219182438899</v>
+        <v>356.9357615640992</v>
       </c>
       <c r="U7" t="n">
-        <v>233.7219182438899</v>
+        <v>188.46866388902</v>
       </c>
       <c r="V7" t="n">
-        <v>233.7219182438899</v>
+        <v>20.00156621394086</v>
       </c>
       <c r="W7" t="n">
-        <v>233.7219182438899</v>
+        <v>20.00156621394086</v>
       </c>
       <c r="X7" t="n">
-        <v>44.30213322740508</v>
+        <v>13.34259413586627</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.0020469733056</v>
+        <v>13.34259413586627</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>520.5803211678657</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C8" t="n">
-        <v>520.5803211678657</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D8" t="n">
-        <v>520.5803211678657</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="E8" t="n">
-        <v>520.5803211678657</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F8" t="n">
-        <v>331.1605361513809</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H8" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123831</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985584</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R8" t="n">
-        <v>738.6222485201467</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S8" t="n">
-        <v>710.0001061843504</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T8" t="n">
-        <v>710.0001061843504</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="U8" t="n">
-        <v>710.0001061843504</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="V8" t="n">
-        <v>710.0001061843504</v>
+        <v>583.26140202276</v>
       </c>
       <c r="W8" t="n">
-        <v>710.0001061843504</v>
+        <v>583.26140202276</v>
       </c>
       <c r="X8" t="n">
-        <v>710.0001061843504</v>
+        <v>583.26140202276</v>
       </c>
       <c r="Y8" t="n">
-        <v>520.5803211678657</v>
+        <v>393.8416170062752</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C9" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D9" t="n">
-        <v>15.00204697330559</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772649</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N9" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P9" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V9" t="n">
-        <v>371.26277863231</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W9" t="n">
-        <v>181.8429936158252</v>
+        <v>531.8746240153139</v>
       </c>
       <c r="X9" t="n">
-        <v>181.8429936158252</v>
+        <v>342.4548389988291</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.00204697330559</v>
+        <v>342.4548389988291</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L10" t="n">
         <v>187.8896250884407</v>
       </c>
       <c r="M10" t="n">
-        <v>373.5399563830973</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N10" t="n">
-        <v>559.190287677754</v>
+        <v>559.1902876777542</v>
       </c>
       <c r="O10" t="n">
-        <v>721.9284911143042</v>
+        <v>721.9284911143044</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R10" t="n">
-        <v>746.7254979846272</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S10" t="n">
-        <v>746.7254979846272</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="T10" t="n">
-        <v>583.2614020227597</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="U10" t="n">
-        <v>393.841617006275</v>
+        <v>367.8859279516578</v>
       </c>
       <c r="V10" t="n">
-        <v>204.4218319897903</v>
+        <v>178.466142935173</v>
       </c>
       <c r="W10" t="n">
-        <v>15.00204697330559</v>
+        <v>178.466142935173</v>
       </c>
       <c r="X10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y10" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1292.833068744076</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C11" t="n">
-        <v>1292.833068744076</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D11" t="n">
-        <v>934.5673701373257</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
         <v>589.2106210810553</v>
@@ -5050,13 +5050,13 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296686</v>
@@ -5068,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2795.806654315204</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W11" t="n">
-        <v>2443.037999045089</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X11" t="n">
-        <v>2069.572240784009</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1679.432908808198</v>
+        <v>2120.647175555804</v>
       </c>
     </row>
     <row r="12">
@@ -5114,7 +5114,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>526.6580321322147</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C13" t="n">
-        <v>357.7218492043078</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D13" t="n">
-        <v>207.605209791972</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>207.605209791972</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>207.605209791972</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>207.605209791972</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218342</v>
@@ -5229,22 +5229,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1446.505797040963</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>1157.088627004002</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>929.0990761059845</v>
+        <v>565.0098577727232</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.3064969624544</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1006.819119944519</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>621.030867346275</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>210.0449625566675</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U14" t="n">
-        <v>3072.075344883006</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V14" t="n">
-        <v>3072.075344883006</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W14" t="n">
-        <v>3072.075344883006</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X14" t="n">
-        <v>2698.609586621927</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y14" t="n">
-        <v>2698.609586621927</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="15">
@@ -5354,7 +5354,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>452.6479724696239</v>
+        <v>339.3097953702104</v>
       </c>
       <c r="C16" t="n">
-        <v>452.6479724696239</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="D16" t="n">
-        <v>452.6479724696239</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E16" t="n">
-        <v>304.7348788872308</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G16" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5469,19 +5469,19 @@
         <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1224.739181610489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V16" t="n">
-        <v>970.0546934046018</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W16" t="n">
-        <v>680.6375233676413</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X16" t="n">
-        <v>452.6479724696239</v>
+        <v>741.7508393439803</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.6479724696239</v>
+        <v>520.9582602004501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1767.878520285689</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C17" t="n">
-        <v>1398.916003345277</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D17" t="n">
-        <v>1398.916003345277</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E17" t="n">
-        <v>1013.127750747033</v>
+        <v>704.0603213003192</v>
       </c>
       <c r="F17" t="n">
-        <v>602.1418459574254</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>187.0693958024219</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5548,19 +5548,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792695</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W17" t="n">
-        <v>2531.48361052258</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X17" t="n">
-        <v>2158.017852261501</v>
+        <v>2235.550262878909</v>
       </c>
       <c r="Y17" t="n">
-        <v>1767.878520285689</v>
+        <v>1845.410930903097</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>231.8553933260934</v>
+        <v>181.169050396912</v>
       </c>
       <c r="C19" t="n">
-        <v>231.8553933260934</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D19" t="n">
-        <v>81.73875391375765</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610488</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046014</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>680.6375233676408</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>452.6479724696235</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y19" t="n">
-        <v>231.8553933260934</v>
+        <v>362.8175152271517</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2047.583838282732</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C20" t="n">
-        <v>1678.62132134232</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D20" t="n">
-        <v>1320.35562273557</v>
+        <v>1156.082344952776</v>
       </c>
       <c r="E20" t="n">
         <v>934.5673701373257</v>
@@ -5749,10 +5749,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K20" t="n">
         <v>589.2106210810557</v>
@@ -5770,34 +5770,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V20" t="n">
-        <v>3177.09166559278</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W20" t="n">
-        <v>2824.323010322666</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X20" t="n">
-        <v>2824.323010322666</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y20" t="n">
-        <v>2434.183678346854</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927768</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,34 +5849,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.0410834832817</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="C22" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V22" t="n">
-        <v>1161.740577577775</v>
+        <v>1213.664991200402</v>
       </c>
       <c r="W22" t="n">
-        <v>872.3234075408143</v>
+        <v>924.2478211634412</v>
       </c>
       <c r="X22" t="n">
-        <v>872.3234075408143</v>
+        <v>696.2582702654239</v>
       </c>
       <c r="Y22" t="n">
-        <v>731.6895483135214</v>
+        <v>696.2582702654239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1678.62132134232</v>
+        <v>1575.915835277607</v>
       </c>
       <c r="C23" t="n">
-        <v>1678.62132134232</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="D23" t="n">
-        <v>1320.35562273557</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E23" t="n">
-        <v>934.5673701373257</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U23" t="n">
-        <v>3126.057954192897</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="V23" t="n">
-        <v>2794.995066849327</v>
+        <v>3078.889420848735</v>
       </c>
       <c r="W23" t="n">
-        <v>2442.226411579212</v>
+        <v>2726.12076557862</v>
       </c>
       <c r="X23" t="n">
-        <v>2068.760653318132</v>
+        <v>2352.65500731754</v>
       </c>
       <c r="Y23" t="n">
-        <v>1678.62132134232</v>
+        <v>1962.515675341729</v>
       </c>
     </row>
     <row r="24">
@@ -6059,22 +6059,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>848.0708164780106</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C25" t="n">
-        <v>679.1346335501037</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>1296.852946519558</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>1296.852946519558</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>1068.863395621541</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y25" t="n">
-        <v>848.0708164780106</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1480.516858765517</v>
+        <v>1565.4402645816</v>
       </c>
       <c r="C26" t="n">
-        <v>1480.516858765517</v>
+        <v>1196.477747641188</v>
       </c>
       <c r="D26" t="n">
-        <v>1320.35562273557</v>
+        <v>838.212049034438</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>452.4237964361938</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6238,16 +6238,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R26" t="n">
         <v>3325.60582160917</v>
@@ -6256,22 +6256,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2630.721789066531</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X26" t="n">
-        <v>2257.256030805451</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y26" t="n">
-        <v>1867.116698829639</v>
+        <v>1952.040104645722</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064544</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>627.8744564335971</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F28" t="n">
-        <v>234.2149530574644</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K28" t="n">
         <v>315.6219318279954</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1825.086842601312</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.527932658019</v>
+        <v>1603.320227170838</v>
       </c>
       <c r="U28" t="n">
-        <v>1416.425065783662</v>
+        <v>1314.217360296482</v>
       </c>
       <c r="V28" t="n">
-        <v>1416.425065783662</v>
+        <v>1314.217360296482</v>
       </c>
       <c r="W28" t="n">
-        <v>1127.007895746702</v>
+        <v>1024.800190259521</v>
       </c>
       <c r="X28" t="n">
-        <v>1127.007895746702</v>
+        <v>796.8106393615039</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>796.8106393615039</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1295.236214140706</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C29" t="n">
-        <v>1206.953318337195</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D29" t="n">
-        <v>1206.953318337195</v>
+        <v>1084.351530561926</v>
       </c>
       <c r="E29" t="n">
-        <v>821.1650657389509</v>
+        <v>698.5632779636817</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>287.5773731740741</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.97538618064</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X29" t="n">
-        <v>2071.97538618064</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y29" t="n">
-        <v>1681.836054204828</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,40 +6548,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
         <v>1317.519490266131</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>231.8553933260938</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218343</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218343</v>
+        <v>74.18997604374653</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218343</v>
+        <v>74.18997604374653</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676413</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696239</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260938</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6676,40 +6676,40 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1647.321240915451</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="C32" t="n">
-        <v>1278.358723975039</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N32" t="n">
         <v>2120.555556060171</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3051.056647942627</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2797.526171216464</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2797.526171216464</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2797.526171216464</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>2424.060412955384</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y32" t="n">
-        <v>2033.921080979572</v>
+        <v>1650.148711251439</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G34" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
         <v>66.5121164321834</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T34" t="n">
-        <v>1927.294548088493</v>
+        <v>1672.501973654409</v>
       </c>
       <c r="U34" t="n">
-        <v>1638.191681214136</v>
+        <v>1383.399106780052</v>
       </c>
       <c r="V34" t="n">
-        <v>1638.191681214136</v>
+        <v>1128.714618574165</v>
       </c>
       <c r="W34" t="n">
-        <v>1348.774511177176</v>
+        <v>839.2974485372046</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>839.2974485372046</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>839.2974485372046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1888.09808975843</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C35" t="n">
-        <v>1519.135572818019</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D35" t="n">
-        <v>1160.869874211268</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E35" t="n">
-        <v>775.0816216130238</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F35" t="n">
-        <v>364.0957168234162</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,13 +6940,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
         <v>2120.555556060171</v>
@@ -6964,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W35" t="n">
-        <v>2531.48361052258</v>
+        <v>2740.621599436322</v>
       </c>
       <c r="X35" t="n">
-        <v>2278.237421734242</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y35" t="n">
-        <v>1888.09808975843</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>385.564938772426</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C37" t="n">
-        <v>216.6287558445191</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D37" t="n">
-        <v>66.5121164321834</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E37" t="n">
-        <v>66.5121164321834</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F37" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1735.608663915319</v>
+        <v>1794.574655601944</v>
       </c>
       <c r="T37" t="n">
-        <v>1513.842048484845</v>
+        <v>1572.80804017147</v>
       </c>
       <c r="U37" t="n">
-        <v>1513.842048484845</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="V37" t="n">
-        <v>1259.157560278958</v>
+        <v>1283.705173297113</v>
       </c>
       <c r="W37" t="n">
-        <v>969.7403902419976</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="X37" t="n">
-        <v>741.7508393439803</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="Y37" t="n">
-        <v>567.2134036026657</v>
+        <v>994.2880032601528</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.40402049088</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926361</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030285</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
         <v>3018.302393296685</v>
@@ -7198,28 +7198,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>3080.299918819975</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>3080.299918819975</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2706.834160558895</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7271,10 +7271,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>304.8914167017408</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="C40" t="n">
-        <v>304.8914167017408</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D40" t="n">
-        <v>304.8914167017408</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E40" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1898.803799349559</v>
       </c>
       <c r="T40" t="n">
-        <v>1513.842048484845</v>
+        <v>1677.037183919085</v>
       </c>
       <c r="U40" t="n">
-        <v>1224.739181610489</v>
+        <v>1387.934317044728</v>
       </c>
       <c r="V40" t="n">
-        <v>1224.739181610489</v>
+        <v>1133.249828838841</v>
       </c>
       <c r="W40" t="n">
-        <v>935.322011573528</v>
+        <v>843.8326588018809</v>
       </c>
       <c r="X40" t="n">
-        <v>707.3324606755107</v>
+        <v>615.8431079038636</v>
       </c>
       <c r="Y40" t="n">
-        <v>486.5398815319805</v>
+        <v>395.0505287603335</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>1221.525483338121</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>852.5629663977095</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U41" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V41" t="n">
-        <v>2630.721789066531</v>
+        <v>2724.499068909249</v>
       </c>
       <c r="W41" t="n">
-        <v>2630.721789066531</v>
+        <v>2371.730413639134</v>
       </c>
       <c r="X41" t="n">
-        <v>2630.721789066531</v>
+        <v>1998.264655378055</v>
       </c>
       <c r="Y41" t="n">
-        <v>2240.582457090719</v>
+        <v>1608.125323402243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I42" t="n">
         <v>66.5121164321834</v>
@@ -7493,10 +7493,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7523,7 +7523,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7532,10 +7532,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>181.169050396912</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C43" t="n">
-        <v>181.169050396912</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D43" t="n">
-        <v>181.169050396912</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E43" t="n">
-        <v>181.169050396912</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7590,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>1127.007895746701</v>
       </c>
       <c r="Y43" t="n">
-        <v>362.8175152271517</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1221.525483338121</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C44" t="n">
-        <v>852.5629663977095</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D44" t="n">
-        <v>494.2972677909589</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E44" t="n">
-        <v>108.5090151927147</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>108.5090151927147</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
         <v>108.5090151927147</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W44" t="n">
-        <v>2277.953133796416</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X44" t="n">
-        <v>1904.487375535336</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y44" t="n">
-        <v>1514.348043559525</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228007</v>
@@ -7733,7 +7733,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.3151575124868</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C46" t="n">
-        <v>361.3151575124868</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7830,28 +7830,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1754.45650500171</v>
       </c>
       <c r="U46" t="n">
-        <v>1513.842048484845</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="V46" t="n">
-        <v>1259.157560278958</v>
+        <v>1465.353638127353</v>
       </c>
       <c r="W46" t="n">
-        <v>991.7457523842741</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="X46" t="n">
-        <v>763.7562014862567</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y46" t="n">
-        <v>542.9636223427266</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.324764167328794</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>22.77491242827334</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8142,19 +8142,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>53.49584486122642</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>141.0220468163143</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>133.2236354305728</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>154.7818223541829</v>
       </c>
       <c r="P4" t="n">
-        <v>116.9682609530345</v>
+        <v>26.04487966482527</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265838</v>
+        <v>19.00792621918458</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8376,16 +8376,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.1043098940285</v>
+        <v>17.8453529694016</v>
       </c>
       <c r="L7" t="n">
-        <v>74.03418926528961</v>
+        <v>159.4104580922941</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457085</v>
+        <v>155.7185244657182</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711117</v>
+        <v>35.25321072636041</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8619,16 +8619,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>171.4142040457083</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P10" t="n">
-        <v>46.56605103777598</v>
+        <v>46.56605103777609</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>195.2082544971607</v>
+        <v>235.887720574772</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046877</v>
+        <v>218.426770682299</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>413.2441370602317</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>318.3921602069877</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>131.1116955327425</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>20.55555711582394</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>162.1097117201341</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>214.0843260727917</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1809648714442</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510931</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>240.3890372235346</v>
       </c>
       <c r="Y2" t="n">
-        <v>221.0654014799591</v>
+        <v>239.391817567345</v>
       </c>
     </row>
     <row r="3">
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.2420688160423</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>101.5977720414757</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>51.47395949496051</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>53.65360604376876</v>
       </c>
       <c r="T3" t="n">
-        <v>30.23706061590673</v>
+        <v>48.87899782081604</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8689183739243</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>85.95446606071673</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459974</v>
+        <v>104.8488620722111</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0675620642408</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>154.0171532915746</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>127.6807984793224</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>28.07357741546448</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,25 +22752,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>61.07783192084744</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>224.0000791711685</v>
       </c>
       <c r="U4" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2686611404426</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>105.2915222351195</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>154.9464426559631</v>
       </c>
       <c r="X4" t="n">
-        <v>63.88020038678849</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753914</v>
+        <v>240.0936190433831</v>
       </c>
       <c r="G5" t="n">
-        <v>225.572246063738</v>
+        <v>259.8968239047506</v>
       </c>
       <c r="H5" t="n">
-        <v>129.3682389399023</v>
+        <v>317.6289855973039</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>128.2387758071391</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368131</v>
+        <v>15.87451065415632</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>213.75811620057</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1750032975372</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>342.8442447313715</v>
+        <v>182.4585420190847</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22865,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,16 +22874,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.2021972754605</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>101.2126968995411</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>50.10118934773676</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>157.906198786248</v>
+        <v>195.5644086209515</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>59.08386854792607</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310526</v>
+        <v>98.89573911549317</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>84.91255646259125</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>167.0341351039889</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>153.7199572267894</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708667</v>
+        <v>126.6755586201103</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553082</v>
+        <v>25.71029132565418</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917622</v>
+        <v>40.55898555847384</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378008</v>
+        <v>223.8572548864558</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>119.4844111533733</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>85.35521662549965</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>38.18406822271714</v>
+        <v>219.1172730317433</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.5775679605363</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971606</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>219.3504585753916</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637382</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,10 +23068,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S8" t="n">
-        <v>130.4398922776148</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>213.4438810562068</v>
@@ -23080,7 +23080,7 @@
         <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>321.3555344840934</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>198.7123514897337</v>
+        <v>198.7123514897336</v>
       </c>
     </row>
     <row r="9">
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23108,7 +23108,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23156,19 +23156,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831054</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599459974</v>
+        <v>223.1751229237734</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y9" t="n">
-        <v>40.51015860120992</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23229,22 +23229,22 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>19.25466862917628</v>
       </c>
       <c r="T10" t="n">
-        <v>61.89021848785134</v>
+        <v>36.19408632378014</v>
       </c>
       <c r="U10" t="n">
-        <v>98.73949432713042</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>64.61205615750814</v>
+        <v>64.61205615750805</v>
       </c>
       <c r="W10" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>63.8802003867884</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>268.8242079902139</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>54.24625480800916</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23421,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23433,7 +23433,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>5.072852488130053</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23469,22 +23469,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>111.2382664500683</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.82611519499869</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>310.4011377631402</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>41.93213386430192</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60632145146253</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23743,16 +23743,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>228.2019783486365</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>175.2560578107844</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,13 +23785,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>53.73645647354655</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>131.3595915398107</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>162.6305450049664</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>180.7232440139082</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.174194817842</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>79.35713271707485</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>53.4427832167915</v>
+        <v>115.9336969942454</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>222.6933979224121</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>73.92737371921413</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>196.1234179510351</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>361.0081766979876</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>88.58339689913306</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>122.2689250580278</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>277.8728249255316</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>233.6440512519076</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>3.55697697365656</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>88.7513393943906</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>41.30204999791894</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>87.36545919571284</v>
       </c>
     </row>
     <row r="33">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>56.23645325647317</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.4296311708957</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>348.8540191953304</v>
       </c>
       <c r="X35" t="n">
-        <v>119.0173737780146</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -25362,25 +25362,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>58.37633176975814</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.79259196819342</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>181.1251564493168</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,16 +25444,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>84.89941470883099</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>55.85950340263859</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>161.5631840798976</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>150.0882792706478</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>92.83950704429037</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>31.91068339784994</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>197.350552123159</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>92.83950704429105</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
         <v>203.9179701396201</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>54.24625480800887</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>137.3714392903011</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>21.78530852085362</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>481019.7826985247</v>
+        <v>447108.5355359078</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>481019.7826985249</v>
+        <v>463667.2743842092</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>481019.7826985247</v>
+        <v>481019.7826985248</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296033</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296033</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>896961.5047296037</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>896961.5047296035</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>896961.5047296033</v>
+        <v>896961.5047296037</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>896961.5047296032</v>
+        <v>896961.5047296034</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>896961.5047296034</v>
+        <v>896961.5047296035</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162397.4547967403</v>
+        <v>150913.5375162088</v>
       </c>
       <c r="C2" t="n">
+        <v>156563.0300299674</v>
+      </c>
+      <c r="D2" t="n">
         <v>162397.4547967405</v>
       </c>
-      <c r="D2" t="n">
-        <v>162397.4547967403</v>
-      </c>
       <c r="E2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="F2" t="n">
+        <v>306897.389073829</v>
+      </c>
+      <c r="G2" t="n">
+        <v>306897.3890738287</v>
+      </c>
+      <c r="H2" t="n">
         <v>306897.3890738288</v>
-      </c>
-      <c r="F2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="G2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="H2" t="n">
-        <v>306897.3890738289</v>
       </c>
       <c r="I2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="J2" t="n">
-        <v>306897.3890738287</v>
+        <v>306897.3890738286</v>
       </c>
       <c r="K2" t="n">
         <v>306897.3890738288</v>
       </c>
       <c r="L2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="M2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="N2" t="n">
+        <v>306897.3890738288</v>
+      </c>
+      <c r="O2" t="n">
         <v>306897.3890738287</v>
       </c>
-      <c r="M2" t="n">
-        <v>306897.3890738287</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>306897.3890738289</v>
-      </c>
-      <c r="O2" t="n">
-        <v>306897.3890738288</v>
-      </c>
-      <c r="P2" t="n">
-        <v>306897.3890738286</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>542655.4349751304</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23320.45473340642</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21735.84085679087</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336677</v>
+        <v>627134.6436336676</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,16 +26386,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>38421.40650613394</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5130.96710213666</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>5249.907226004462</v>
       </c>
       <c r="M3" t="n">
         <v>160456.4418678774</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12034.19304942662</v>
+        <v>11263.43165881185</v>
       </c>
       <c r="C4" t="n">
+        <v>11518.70215387087</v>
+      </c>
+      <c r="D4" t="n">
         <v>12034.19304942663</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12034.19304942662</v>
       </c>
       <c r="E4" t="n">
         <v>10990.29103211609</v>
@@ -26435,7 +26435,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="H4" t="n">
-        <v>10990.29103211611</v>
+        <v>10990.29103211609</v>
       </c>
       <c r="I4" t="n">
         <v>10990.29103211609</v>
@@ -26453,7 +26453,7 @@
         <v>10990.29103211609</v>
       </c>
       <c r="N4" t="n">
-        <v>10990.29103211609</v>
+        <v>10990.29103211611</v>
       </c>
       <c r="O4" t="n">
         <v>10990.29103211609</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>53719.11977902089</v>
       </c>
       <c r="C5" t="n">
+        <v>55335.34872138573</v>
+      </c>
+      <c r="D5" t="n">
         <v>56985.80041161358</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-509483.4046097113</v>
+        <v>-457938.6447796583</v>
       </c>
       <c r="C6" t="n">
-        <v>81873.49791113434</v>
+        <v>65205.7146079213</v>
       </c>
       <c r="D6" t="n">
-        <v>81873.4979111342</v>
+        <v>70491.22413645282</v>
       </c>
       <c r="E6" t="n">
-        <v>-409010.0754514094</v>
+        <v>-405881.5050831544</v>
       </c>
       <c r="F6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505135</v>
       </c>
       <c r="G6" t="n">
-        <v>218124.5681822585</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="H6" t="n">
-        <v>218124.5681822584</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="I6" t="n">
-        <v>218124.5681822581</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="J6" t="n">
-        <v>169059.6234537137</v>
+        <v>182831.7320443792</v>
       </c>
       <c r="K6" t="n">
-        <v>218124.5681822583</v>
+        <v>216122.1714483766</v>
       </c>
       <c r="L6" t="n">
-        <v>218124.5681822583</v>
+        <v>216003.2313245088</v>
       </c>
       <c r="M6" t="n">
-        <v>57668.12631438085</v>
+        <v>60796.69668263588</v>
       </c>
       <c r="N6" t="n">
-        <v>218124.5681822584</v>
+        <v>221253.1385505134</v>
       </c>
       <c r="O6" t="n">
-        <v>218124.5681822583</v>
+        <v>221253.1385505132</v>
       </c>
       <c r="P6" t="n">
-        <v>218124.5681822582</v>
+        <v>221253.1385505132</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129047</v>
+        <v>530.6136320241911</v>
       </c>
       <c r="D3" t="n">
         <v>548.4699409129046</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
+        <v>166.7824266983284</v>
+      </c>
+      <c r="D4" t="n">
         <v>187.52558716632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,13 +26959,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>512.0768631572208</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>18.53676886697031</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>17.85630888871344</v>
       </c>
       <c r="E3" t="n">
         <v>541.3067596803937</v>
@@ -26980,28 +26980,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>146.8461210887081</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961992</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>19.93630560961981</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>20.7431604679916</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359729</v>
+        <v>643.8758682359728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.058600454903399</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>21.08264190877944</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>79.36419403766335</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>174.7211403593575</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>261.8616976154184</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>324.8625912871684</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>361.4722271270567</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>367.321225669551</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>346.8510173961053</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>296.0293186656776</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>222.3056898744496</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>129.3135608253257</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>46.91035786611125</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.011523491339632</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1646880363922719</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.101448347168362</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>10.63767219502076</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>37.92267335645457</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>104.0627142383934</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>177.8597534986736</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>200.3731410096119</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>279.0818904206853</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>278.1878331720418</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>262.0625810914128</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>210.3283251711234</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>68.38641580050586</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>20.45891995727197</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.439609785297035</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07246370705055015</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9234172942179391</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.210019215864955</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>27.76967644793585</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>65.28560270120829</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>107.2843001827751</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>137.2869675421834</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>144.7498582199993</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>141.3080301233689</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>130.5208371863684</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>111.6831243843223</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>77.32360633674034</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>41.52019942910842</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>16.09264502741626</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>3.945510257113011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05036821604825128</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077002</v>
+        <v>2.133120128740465</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>21.84581651846329</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043121</v>
+        <v>82.23711376326686</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655544</v>
+        <v>181.0459045266862</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528639</v>
+        <v>271.3408795762702</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672893</v>
+        <v>336.6223547162112</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470274</v>
+        <v>374.5572298056995</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470025</v>
+        <v>380.6179573714834</v>
       </c>
       <c r="O5" t="n">
-        <v>371.501566862268</v>
+        <v>359.4067440913203</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244295</v>
+        <v>306.7453409130401</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151093</v>
+        <v>230.3529763025221</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>133.9946072869934</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619223</v>
+        <v>48.6084749336734</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924582</v>
+        <v>9.337733363561391</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1706496102992372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.141319887750147</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>11.02274733695537</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590851</v>
+        <v>39.29544350367831</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340083</v>
+        <v>107.8297004474821</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621737</v>
+        <v>184.2981329267419</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405033</v>
+        <v>247.8115835222414</v>
       </c>
       <c r="M6" t="n">
-        <v>298.916117797533</v>
+        <v>289.1844294531841</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829655</v>
+        <v>270.3413096326975</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292674</v>
+        <v>271.5490348718519</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628872</v>
+        <v>217.9420406704645</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936715</v>
+        <v>145.68848251351</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550077</v>
+        <v>70.86194882013635</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>21.19951633606083</v>
       </c>
       <c r="T6" t="n">
-        <v>4.75513090282037</v>
+        <v>4.600320073870108</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07508683472040444</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9568442544698528</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620018</v>
+        <v>8.507215280650152</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639162</v>
+        <v>28.77491630714794</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114196</v>
+        <v>67.64888879101859</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>111.1679052011338</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>142.2566448872725</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682166</v>
+        <v>149.9896861802152</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>146.4232666862822</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592433</v>
+        <v>135.245586077248</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>115.7259632860629</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784861</v>
+        <v>80.12265843565285</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647911</v>
+        <v>43.02319711461719</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147603</v>
+        <v>16.67518578017006</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181395</v>
+        <v>4.088334541825733</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05219150478926476</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953992</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746405</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34459,7 +34459,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
         <v>557.708647897025</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>41.77184657043784</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>89.09617631718112</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>131.1259938997839</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>137.9081620729601</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>116.7528059744186</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>64.79632291040804</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>40.0183145243146</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>61.81876122973769</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>136.947856498667</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>119.4663366469684</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>76.35391775679318</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>85.01480835689223</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>55.89813612217159</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400524</v>
+        <v>146.8461210887085</v>
       </c>
       <c r="P4" t="n">
-        <v>98.86065188594064</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.09259053886808</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788338</v>
+        <v>51.25102853128965</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973021</v>
+        <v>100.855939746224</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197547</v>
+        <v>144.2109965784267</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504116</v>
+        <v>151.2048937748925</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405813</v>
+        <v>129.3085326696336</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915996</v>
+        <v>75.51234515777054</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065978</v>
+        <v>8.047286428072596</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781472</v>
+        <v>46.45669395238295</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606291</v>
+        <v>109.2572037423672</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755147</v>
+        <v>147.0503955311658</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996321</v>
+        <v>138.9995975493642</v>
       </c>
       <c r="O6" t="n">
-        <v>138.091009184823</v>
+        <v>128.9527904274074</v>
       </c>
       <c r="P6" t="n">
-        <v>91.301859448557</v>
+        <v>83.96763325613423</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764999</v>
+        <v>5.706708427488479</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>86.19340501175041</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="M7" t="n">
-        <v>187.52558716632</v>
+        <v>166.7824266983284</v>
       </c>
       <c r="N7" t="n">
-        <v>187.52558716632</v>
+        <v>53.99093294740943</v>
       </c>
       <c r="O7" t="n">
-        <v>164.382023673283</v>
+        <v>159.8307139912876</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>113.0045225509564</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35339,16 +35339,16 @@
         <v>174.6339172880152</v>
       </c>
       <c r="M10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663199</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O10" t="n">
         <v>164.382023673283</v>
       </c>
       <c r="P10" t="n">
-        <v>28.45844197068212</v>
+        <v>28.45844197068223</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687129</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.761986219371</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38107,7 +38107,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
         <v>415.1124034525806</v>
